--- a/Measurements for Components.xlsx
+++ b/Measurements for Components.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravigandhi/Documents/GitHub/ECE1895-DesignProject2-RRRK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reece Basehore\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1AB689-1E43-7B48-98EB-5CCC37CD37FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A3745-4599-4A71-B1CD-A342F7F47CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18880" xr2:uid="{A23BAD66-4846-DA4F-B9E0-62E19F983242}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A23BAD66-4846-DA4F-B9E0-62E19F983242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Measurements for Bop-IT : Team Sigma </t>
   </si>
@@ -69,9 +69,6 @@
     <t>LED Panel</t>
   </si>
   <si>
-    <t>81x37</t>
-  </si>
-  <si>
     <t>Rectangular</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>93x93</t>
+  </si>
+  <si>
+    <t>Enclosure</t>
+  </si>
+  <si>
+    <t>71x23.5</t>
+  </si>
+  <si>
+    <t>251.7x223.8x50.4</t>
   </si>
 </sst>
 </file>
@@ -470,25 +476,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6450AED5-9AD3-BC47-BAC5-91132DC8590A}">
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="273" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="273" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
-    <col min="4" max="5" width="16.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="16.19921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -499,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>IF(B5&lt;&gt;"", A4+1, "")</f>
         <v>1</v>
@@ -514,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A22" si="0">IF(B6&lt;&gt;"", A5+1, "")</f>
         <v>2</v>
@@ -529,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -544,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -559,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -568,19 +574,19 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>25</v>
@@ -589,111 +595,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="str">
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="e">
+        <f>IF(#REF!&lt;&gt;"", A15+1, "")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="str">
+    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="str">
+    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="str">
+    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="str">
+    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
+    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
